--- a/elite-data/manifest-templates/EL_template_AnalysisResultsMetadataTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AnalysisResultsMetadataTemplate.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="180">
   <si>
     <t>entity</t>
   </si>
@@ -283,10 +283,16 @@
     <t>ANOVA</t>
   </si>
   <si>
+    <t>clinical</t>
+  </si>
+  <si>
     <t>10x multiome</t>
   </si>
   <si>
     <t>batch effect correction</t>
+  </si>
+  <si>
+    <t>drugScreen</t>
   </si>
   <si>
     <t>16SrRNAseq</t>
@@ -295,10 +301,16 @@
     <t>clustering</t>
   </si>
   <si>
+    <t>electrophysiology</t>
+  </si>
+  <si>
     <t>active avoidance learning behavior</t>
   </si>
   <si>
     <t>data normalization</t>
+  </si>
+  <si>
+    <t>epigenetics</t>
   </si>
   <si>
     <t>anxiety-related behavior</t>
@@ -307,10 +319,16 @@
     <t>de-novo assembly</t>
   </si>
   <si>
+    <t>geneExpression</t>
+  </si>
+  <si>
     <t>ATACSeq</t>
   </si>
   <si>
     <t>dose response study</t>
+  </si>
+  <si>
+    <t>genomeAssembly</t>
   </si>
   <si>
     <t>atomicForceMicroscopy</t>
@@ -319,10 +337,16 @@
     <t>enrichment analysis</t>
   </si>
   <si>
+    <t>genomicVariants</t>
+  </si>
+  <si>
     <t>autoradiography</t>
   </si>
   <si>
     <t>genome-wide association</t>
+  </si>
+  <si>
+    <t>imaging</t>
   </si>
   <si>
     <t>Baker Lipidomics</t>
@@ -331,10 +355,16 @@
     <t>mendelian randomization analysis</t>
   </si>
   <si>
+    <t>lipidomics</t>
+  </si>
+  <si>
     <t>Biocrates Bile Acids</t>
   </si>
   <si>
     <t>network analysis</t>
+  </si>
+  <si>
+    <t>metabolomics</t>
   </si>
   <si>
     <t>Biocrates p180</t>
@@ -343,31 +373,58 @@
     <t>Not assigned</t>
   </si>
   <si>
+    <t>metagenomics</t>
+  </si>
+  <si>
     <t>Biocrates Q500</t>
   </si>
   <si>
     <t>polygenic risk scores</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
     <t>bisulfiteSeq</t>
+  </si>
+  <si>
+    <t>Not collected</t>
   </si>
   <si>
     <t>Blood Chemistry Measurement</t>
   </si>
   <si>
+    <t>Not specified</t>
+  </si>
+  <si>
     <t>brightfieldMicroscopy</t>
+  </si>
+  <si>
+    <t>other</t>
   </si>
   <si>
     <t>cellViabilityAssay</t>
   </si>
   <si>
+    <t>phenotype</t>
+  </si>
+  <si>
     <t>ChIPSeq</t>
+  </si>
+  <si>
+    <t>proteomics</t>
   </si>
   <si>
     <t>CITESeq</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>contextual conditioning behavior</t>
+  </si>
+  <si>
+    <t>wearableData</t>
   </si>
   <si>
     <t>CUT&amp;Tag</t>
@@ -529,22 +586,10 @@
     <t>NOMe-Seq</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Not collected</t>
-  </si>
-  <si>
-    <t>Not specified</t>
-  </si>
-  <si>
     <t>novelty response behavior</t>
   </si>
   <si>
     <t>open field test</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>oxBS-Seq</t>
@@ -644,9 +689,6 @@
   </si>
   <si>
     <t>UCSD Untargeted Metabolomics</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>UPLC-ESI-QTOF-MS</t>
@@ -35084,6 +35126,9 @@
     </row>
   </sheetData>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="E2:E1000">
+      <formula1>Sheet2!$E$2:$E$20</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Choose one from dropdown" sqref="C2:C1000">
       <formula1>Sheet2!$C$2:$C$13</formula1>
     </dataValidation>
@@ -35208,646 +35253,703 @@
       <c r="C2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="C5" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="C9" s="5" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="C10" s="5" t="s">
-        <v>48</v>
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="C11" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="5" t="s">
-        <v>54</v>
+        <v>65</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14">
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="I14" s="5" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
+      <c r="E15" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="I15" s="5" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
+      <c r="E16" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="I16" s="5" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="I17" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
+      <c r="E18" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I18" s="5" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
+      <c r="E19" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="I19" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
+      <c r="E20" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="I20" s="5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="I21" s="5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="I22" s="5" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="I23" s="5" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="I24" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="I29" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="I30" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="I31" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="I39" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="I40" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="I41" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="I42" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="I43" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="I44" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="I45" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="I46" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="I47" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="I52" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="I53" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="I54" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="I55" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="I56" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="I57" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="I58" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="I59" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="I60" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="I61" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="I62" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="I63" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="I65" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="I66" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="I67" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="I68" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="I69" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="I70" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="I71" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="I72" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="I73" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="25">
-      <c r="I25" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="I26" s="5" t="s">
+    <row r="74">
+      <c r="I74" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27">
-      <c r="I27" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="I28" s="5" t="s">
+    <row r="75">
+      <c r="I75" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29">
-      <c r="I29" s="5" t="s">
-        <v>71</v>
+    <row r="76">
+      <c r="I76" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="30">
-      <c r="I30" s="5" t="s">
+    <row r="77">
+      <c r="I77" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="I78" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="31">
-      <c r="I31" s="5" t="s">
-        <v>73</v>
+    <row r="79">
+      <c r="I79" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
-    <row r="32">
-      <c r="I32" s="5" t="s">
-        <v>74</v>
+    <row r="80">
+      <c r="I80" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="33">
-      <c r="I33" s="5" t="s">
-        <v>75</v>
+    <row r="81">
+      <c r="I81" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
-    <row r="34">
-      <c r="I34" s="5" t="s">
-        <v>76</v>
+    <row r="82">
+      <c r="I82" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
-    <row r="35">
-      <c r="I35" s="5" t="s">
-        <v>77</v>
+    <row r="83">
+      <c r="I83" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="36">
-      <c r="I36" s="5" t="s">
+    <row r="84">
+      <c r="I84" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="I85" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="I86" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="I87" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="I88" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="I89" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="I90" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="I91" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="I92" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="I93" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="I94" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="I95" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="I96" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="I97" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="I98" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="I99" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="I100" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="I101" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="I103" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="I104" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="I105" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="I106" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="I107" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="I108" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="I109" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="I110" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="I111" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="I112" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37">
-      <c r="I37" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="I38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="I39" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="I40" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="I41" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="I42" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="I43" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="I44" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="I45" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="I46" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="I47" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="I48" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="I49" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="I50" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="I51" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="I52" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="I53" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="I54" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="I55" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="I56" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="I57" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="I58" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="I59" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="I60" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="I61" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="I62" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="I63" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="I64" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="I65" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="I66" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="I67" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="I68" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="I69" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="I70" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="I71" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="I72" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="I73" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="I74" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="I75" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="I76" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="I77" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="I78" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="I79" s="5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="I80" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="I81" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="I82" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="I83" s="5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="I84" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="I85" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="I86" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="I87" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="I88" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="I89" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="I90" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="I91" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="I92" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="I93" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="I94" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="I95" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="I96" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="I97" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="I98" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="I99" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="I100" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="I101" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="I102" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="I103" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="I104" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="I105" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="I106" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="I107" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="I108" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="I109" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="I110" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="I111" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="I112" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
     <row r="113">
       <c r="I113" s="5" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="I114" s="5" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="115">
       <c r="I115" s="5" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
     </row>
     <row r="116">
       <c r="I116" s="5" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="117">
       <c r="I117" s="5" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="118">
       <c r="I118" s="5" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
     </row>
     <row r="119">
       <c r="I119" s="5" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="120">
       <c r="I120" s="5" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121">
       <c r="I121" s="5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
     </row>
     <row r="122">
       <c r="I122" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="123">
       <c r="I123" s="5" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/elite-data/manifest-templates/EL_template_AnalysisResultsMetadataTemplate.xlsx
+++ b/elite-data/manifest-templates/EL_template_AnalysisResultsMetadataTemplate.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet state="hidden" name="Sheet2" sheetId="2" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -819,6 +819,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<x18tc:personList xmlns:x18tc="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
